--- a/src/test/resources/TestData/Team12-TestData-LMS-UI-Hackathon-April2024-2.xlsx
+++ b/src/test/resources/TestData/Team12-TestData-LMS-UI-Hackathon-April2024-2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amreennaziasyed/eclipse-workspace/DSALGO/assignstudent/src/test/resources/TestData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amreennaziasyed/git/Team12_XpathWarriors_LMS_UI_April202/src/test/resources/TestData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E95C1208-6FC1-754D-98CA-646DB9B63EB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97C83E4-9813-4946-987E-4EBC7D7FCC5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15820" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Program" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="71">
   <si>
     <t>programName</t>
   </si>
@@ -42,9 +42,6 @@
     <t>invalidprogramDescription</t>
   </si>
   <si>
-    <t>xpathteam1257</t>
-  </si>
-  <si>
     <t>xpathrocks</t>
   </si>
   <si>
@@ -192,9 +189,6 @@
     <t>https://www.linkedin.com /in/ xpathwarriors/</t>
   </si>
   <si>
-    <t>xpathwarriors515@gmail.com</t>
-  </si>
-  <si>
     <t>Btech</t>
   </si>
   <si>
@@ -232,13 +226,22 @@
   </si>
   <si>
     <t>pooja@gmail.com</t>
+  </si>
+  <si>
+    <t>xpathwarriors991@gmail.com</t>
+  </si>
+  <si>
+    <t>Batch23328</t>
+  </si>
+  <si>
+    <t>xpathteam1269</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -257,13 +260,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -312,9 +308,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -325,10 +321,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -550,7 +545,9 @@
   </sheetPr>
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -584,22 +581,22 @@
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -678,7 +675,9 @@
   </sheetPr>
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -689,78 +688,78 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="C2" s="3">
         <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="G2" s="3">
         <v>10000000000</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I2" s="3">
         <v>20</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K2" s="4">
         <v>10000000000000</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -775,8 +774,8 @@
   </sheetPr>
   <dimension ref="A1:Z5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="S17" sqref="S17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -787,67 +786,67 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="S1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="T1" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="U1" s="8" t="s">
-        <v>67</v>
+      <c r="T1" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
@@ -857,67 +856,67 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="3">
+        <v>7722331292</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="3">
-        <v>7722334889</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="L2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="O2" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="O2" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="Q2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="S2" s="9" t="s">
-        <v>69</v>
+        <v>22</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>67</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
@@ -934,25 +933,25 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="J3" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -975,16 +974,16 @@
         <v>123</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="G4" s="3">
         <v>123</v>
@@ -995,8 +994,8 @@
       <c r="I4" s="3">
         <v>123</v>
       </c>
-      <c r="J4" s="6" t="s">
-        <v>65</v>
+      <c r="J4" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="K4" s="3">
         <v>123</v>
